--- a/BackLog/backlogProduitAhmed.xlsx
+++ b/BackLog/backlogProduitAhmed.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Fourati\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193E6523-5A2B-43FE-B8C6-31589F91EF5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Feature</t>
   </si>
@@ -177,13 +171,40 @@
   </si>
   <si>
     <t>en tant qu utlisateur je peux voir des publications des dons</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +238,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -230,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -248,6 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -260,7 +288,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,7 +358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -373,7 +410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -567,21 +604,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -589,31 +626,31 @@
     <col min="4" max="4" width="93" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:16" ht="15" customHeight="1">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -623,227 +660,254 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+    <row r="3" spans="1:16">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
       <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
       <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
       <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
       <c r="D19" t="s">
         <v>47</v>
       </c>
@@ -853,81 +917,90 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+    <row r="20" spans="1:16" s="14" customFormat="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A21" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
+    <row r="23" spans="1:16">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" t="s">
+    <row r="24" spans="1:16">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
         <v>46</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+    <row r="27" spans="1:16">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="L3:P18"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="B2:B18"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="A21:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BackLog/backlogProduitAhmed.xlsx
+++ b/BackLog/backlogProduitAhmed.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Fourati\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E24F0C5-0136-4755-A670-EFC4B770FE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>Feature</t>
   </si>
@@ -123,11 +130,6 @@
     <t>en tant que restaurant je recois un sms sur mon teléphone</t>
   </si>
   <si>
-    <t xml:space="preserve">remarques:
-en tant que  restaurant je peux consultermon profil (pts xp , etc ...) = 3aindi wela 3and Amine (gestion utilisateur )?? 
-</t>
-  </si>
-  <si>
     <t>en tant qu'organisation je peux consulter la liste des dons par pertience</t>
   </si>
   <si>
@@ -170,9 +172,6 @@
     <t>2.6</t>
   </si>
   <si>
-    <t>en tant qu utlisateur je peux voir des publications des dons</t>
-  </si>
-  <si>
     <t>1.7</t>
   </si>
   <si>
@@ -198,13 +197,55 @@
   </si>
   <si>
     <t>1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en tant que utilisateur je peux voir les publicités selon mon centre d'interet </t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>offre don</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>appel au don</t>
+  </si>
+  <si>
+    <t>en tant qu' organisation je peux ajouter une publication(action)</t>
+  </si>
+  <si>
+    <t>en tant qu' organisation je peux modifier une publication(action)</t>
+  </si>
+  <si>
+    <t>en tant qu' organisation je peux supprimer une publication(action)</t>
+  </si>
+  <si>
+    <t>en tant qu'utilisateur je peux consulter toute sorte de pulication</t>
+  </si>
+  <si>
+    <t>en tant qu'un admin je peux voir les appel aux dons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,12 +260,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -234,13 +287,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,36 +316,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -295,9 +345,16 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,7 +415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -410,7 +467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -604,405 +661,998 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" customWidth="1"/>
     <col min="4" max="4" width="93" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="10">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" t="s">
+      <c r="E2" s="8">
+        <v>100</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="12"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="12"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="12"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7">
+        <v>99</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <v>98</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7">
+        <v>97</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7">
+        <v>96</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7">
+        <v>85</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7">
+        <v>84</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7">
+        <v>83</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7">
+        <v>82</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" t="s">
+      <c r="E14" s="7">
+        <v>81</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" t="s">
+      <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7">
+        <v>80</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" t="s">
+      <c r="D16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="7">
+        <v>78</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" t="s">
+      <c r="D17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="7">
+        <v>77</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="7">
+        <v>76</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
+      <c r="E19" s="7">
+        <v>95</v>
+      </c>
+      <c r="F19" s="13"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" s="14" customFormat="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-    </row>
-    <row r="21" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A21" s="10">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="7">
+        <v>94</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="7">
+        <v>93</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7">
+        <v>92</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="7">
+        <v>75</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="17"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E24" s="11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" t="s">
+      <c r="E25" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D26" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
+      <c r="E26" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D27" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
+      <c r="E27" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D28" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" t="s">
+      <c r="E28" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D29" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="E29" s="11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="11">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="L3:P18"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="A21:A26"/>
+  <mergeCells count="7">
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B2:B23"/>
+    <mergeCell ref="A2:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BE848D-0F2B-468F-84BE-BA16BCA4DFEE}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>2</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="11">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:B23"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:B30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BackLog/backlogProduitAhmed.xlsx
+++ b/BackLog/backlogProduitAhmed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Fourati\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E24F0C5-0136-4755-A670-EFC4B770FE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAB4460-88C6-4C63-A2FB-C22CAA5DADC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
   <si>
     <t>Feature</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>en tant qu'un admin je peux voir les appel aux dons</t>
+  </si>
+  <si>
+    <t>Plateforme Organisation-Restaurants</t>
   </si>
 </sst>
 </file>
@@ -328,33 +331,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,36 +708,36 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="13">
         <v>100</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="11"/>
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -742,16 +745,16 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="11"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -759,16 +762,16 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="11"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -776,18 +779,18 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>99</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -795,18 +798,18 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>98</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -814,18 +817,18 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>97</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="11"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -833,18 +836,18 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>96</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="8"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -852,18 +855,18 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>85</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="8"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -871,18 +874,18 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>84</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="8"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -890,18 +893,18 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>83</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="9" t="s">
         <v>63</v>
       </c>
       <c r="L12" s="3"/>
@@ -911,18 +914,18 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>82</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="7"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -930,18 +933,18 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>81</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="7"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -949,18 +952,18 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>80</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="7"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -968,18 +971,18 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>78</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="12" t="s">
         <v>62</v>
       </c>
       <c r="L16" s="3"/>
@@ -989,18 +992,18 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>77</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="12"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1008,18 +1011,18 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>76</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="12"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1027,18 +1030,18 @@
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>95</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="7"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -1046,18 +1049,18 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>94</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="7"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -1065,18 +1068,18 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>93</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="7"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -1084,18 +1087,18 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>92</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="8"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -1103,20 +1106,20 @@
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>75</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="17"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="10"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1124,97 +1127,97 @@
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="15">
         <v>2</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="6">
         <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="6">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="6">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="6">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="6">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="6">
         <v>86</v>
       </c>
     </row>
@@ -1238,7 +1241,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,381 +1270,381 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="15">
         <v>2</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="6">
         <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="6">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="6">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="6">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="6">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="6">
         <v>86</v>
       </c>
     </row>
